--- a/src/predicciones/holt_winters/producto_148.xlsx
+++ b/src/predicciones/holt_winters/producto_148.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1036 +404,1729 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2.003690754662926</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9870769120657478</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44937</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2.005633351297718</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44941</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.998571639916299</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44946</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9753733027636153</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44947</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.9777122825464296</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44949</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.007839982661594</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44951</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2.000375480652343</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44952</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.9837616380551649</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44954</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2.002318077287135</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44959</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.995256365905717</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44961</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.9720580287530327</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44962</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.9743970085358468</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44963</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.004524708651011</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44964</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.99706020664176</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44968</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.9804463640445821</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44974</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.999002803276552</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44977</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.991941091895134</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44979</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9687427547424499</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44980</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9710817345252639</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44981</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.001209434640428</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44987</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.993744932631178</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44988</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9771310900339992</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44992</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.995687529265969</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44996</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1.988625817884551</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44998</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.965427480731867</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44999</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9677664605146813</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45000</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.9978941606298457</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45001</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.990429658620595</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45002</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9738158160234164</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45005</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>1.992372255255387</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45006</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>1.985310543873968</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45009</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9621122067212842</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45011</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9644511865040984</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45014</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9945788866192629</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45015</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>1.987114384610012</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45016</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9705005420128335</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45020</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>1.989056981244804</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45022</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>1.981995269863385</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45026</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9587969327107013</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45028</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9611359124935156</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45032</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.99126361260868</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45034</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>1.983799110599429</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45036</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9671852680022509</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45038</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>1.985741707234221</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45039</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>1.978679995852802</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45043</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9554816587001185</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45044</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9578206384829328</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45045</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9879483385980972</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45050</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>1.980483836588846</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45055</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.9638699939916681</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45057</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>1.982426433223638</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45062</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>1.975364721842219</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45064</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.9521663846895356</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45066</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9545053644723499</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45070</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.9846330645875143</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45071</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>1.977168562578264</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45080</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.9605547199810852</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45081</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>1.979111159213055</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45083</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>1.972049447831637</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45086</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9488511106789528</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45089</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9511900904617671</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45090</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.9813177905769315</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45091</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>1.973853288567681</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45096</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.9572394459705024</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45097</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>1.975795885202472</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45102</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>1.968734173821054</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45105</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.9455358366683699</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45109</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.9478748164511842</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45112</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.9780025165663486</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45115</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>1.970538014557098</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45120</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9539241719599195</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45124</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>1.97248061119189</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45128</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>1.965418899810471</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45131</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.9422205626577873</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45133</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.9445595424406016</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45134</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.9746872425557658</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45140</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>1.967222740546515</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45141</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.9506088979493367</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45142</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>1.969165337181307</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45147</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>1.962103625799888</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45148</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.9389052886472045</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45150</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.9412442684300187</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45151</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0.9713719685451829</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45156</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>1.963907466535932</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45159</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0.9472936239387538</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45160</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>1.965850063170724</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45162</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>1.958788351789305</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45163</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.9355900146366216</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45164</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9379289944194359</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45167</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0.9680566945346003</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45168</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>1.96059219252535</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45169</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.943978349928171</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45171</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>1.962534789160141</v>
       </c>
       <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B96">
+        <v>1.955473077778723</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B97">
+        <v>0.9322747406260388</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B98">
+        <v>0.934613720408853</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B99">
+        <v>0.9647414205240175</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B100">
+        <v>1.957276918514767</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B101">
+        <v>0.9406630759175881</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B102">
+        <v>1.959219515149558</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B103">
+        <v>1.95215780376814</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B104">
+        <v>0.9289594666154559</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B105">
+        <v>0.9312984463982702</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B106">
+        <v>0.9614261465134346</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B107">
+        <v>1.953961644504184</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B108">
+        <v>0.9373478019070055</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B109">
+        <v>1.955904241138976</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B110">
+        <v>1.948842529757557</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B111">
+        <v>0.9256441926048731</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B112">
+        <v>0.9279831723876873</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B113">
+        <v>0.9581108725028518</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B114">
+        <v>1.950646370493601</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B115">
+        <v>0.9340325278964227</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B116">
+        <v>1.952588967128393</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B117">
+        <v>1.945527255746974</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B118">
+        <v>0.9223289185942902</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B119">
+        <v>0.9246678983771045</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B120">
+        <v>0.9547955984922689</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B121">
+        <v>1.947331096483018</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B122">
+        <v>0.9307172538858398</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B123">
+        <v>1.94927369311781</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B124">
+        <v>1.942211981736391</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B125">
+        <v>0.9190136445837076</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B126">
+        <v>0.9213526243665217</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B127">
+        <v>0.9514803244816861</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B128">
+        <v>1.944015822472435</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B129">
+        <v>0.927401979875257</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B130">
+        <v>1.945958419107227</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B131">
+        <v>1.938896707725809</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B132">
+        <v>0.9156983705731248</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B133">
+        <v>0.9180373503559388</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B134">
+        <v>0.9481650504711032</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B135">
+        <v>1.940700548461852</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B136">
+        <v>0.9240867058646741</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B137">
+        <v>1.942643145096644</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B138">
+        <v>1.935581433715226</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B139">
+        <v>0.9123830965625419</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B140">
+        <v>0.9147220763453562</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B141">
+        <v>0.9448497764605206</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B142">
+        <v>1.93738527445127</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B143">
+        <v>0.9207714318540913</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B144">
+        <v>1.939327871086062</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B145">
+        <v>1.932266159704643</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B146">
+        <v>0.9090678225519591</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B147">
+        <v>0.9114068023347733</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B148">
+        <v>0.9415345024499377</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B149">
+        <v>1.934070000440687</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B150">
+        <v>0.9174561578435084</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B151">
+        <v>1.936012597075479</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B152">
+        <v>1.92895088569406</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B153">
+        <v>0.9057525485413762</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B154">
+        <v>0.9080915283241905</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B155">
+        <v>0.9382192284393549</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B156">
+        <v>1.930754726430104</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B157">
+        <v>0.9141408838329258</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B158">
+        <v>1.932697323064896</v>
+      </c>
+      <c r="C158">
         <v>1</v>
       </c>
     </row>
